--- a/m1/u1/ejercicios/20191106/filtros/Filtros II.xlsx
+++ b/m1/u1/ejercicios/20191106/filtros/Filtros II.xlsx
@@ -22,14 +22,14 @@
     <definedName name="Abril">#REF!</definedName>
     <definedName name="anscount" hidden="1">2</definedName>
     <definedName name="Apellido">'[1]27'!$C$15:$C$22</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="0">'116'!$J$16:$O$16</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="0">'116'!$J$63:$O$63</definedName>
     <definedName name="base_datos">'[1]76'!$A$58:$E$74</definedName>
     <definedName name="BudgetTab">#REF!</definedName>
     <definedName name="Code">'[1]35'!$A$1:$A$12</definedName>
     <definedName name="Código">#REF!</definedName>
     <definedName name="Colegios">#REF!</definedName>
     <definedName name="Comida">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">'116'!$J$13:$J$14</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">'116'!$J$60:$J$61</definedName>
     <definedName name="cuota">'[1]32'!$A$11:$D$28</definedName>
     <definedName name="Domicilio">'[1]27'!$D$15:$D$22</definedName>
     <definedName name="Enero">#REF!</definedName>
@@ -43,12 +43,12 @@
     <definedName name="sencount" hidden="1">1</definedName>
     <definedName name="Teléfono">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="30">
   <si>
     <t>BANKINTER</t>
   </si>
@@ -136,6 +136,9 @@
   <si>
     <t>&gt;6</t>
   </si>
+  <si>
+    <t>&gt;0</t>
+  </si>
 </sst>
 </file>
 
@@ -157,6 +160,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -170,6 +174,7 @@
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -241,7 +246,7 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,6 +281,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Comma [0]" xfId="3"/>
@@ -1656,10 +1662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+  <dimension ref="A1:O74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L75" sqref="L75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
@@ -1670,6 +1676,7 @@
     <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -2368,7 +2375,7 @@
         <v>-12.35</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="13.5" thickBot="1">
       <c r="A30" s="10">
         <v>16</v>
       </c>
@@ -2388,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="13.5" thickBot="1">
+    <row r="31" spans="1:15" ht="14.25" thickTop="1" thickBot="1">
       <c r="A31" s="5">
         <v>17</v>
       </c>
@@ -2407,8 +2414,582 @@
       <c r="F31" s="1">
         <v>-9.36</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="13.5" thickTop="1"/>
+      <c r="J31" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="13.5" thickTop="1">
+      <c r="J32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="10:15" ht="13.5" thickBot="1"/>
+    <row r="34" spans="10:15" ht="13.5" thickTop="1">
+      <c r="J34" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N34" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="10:15">
+      <c r="J35" s="10">
+        <v>2</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M35" s="8">
+        <v>1.31</v>
+      </c>
+      <c r="N35" s="7">
+        <v>14.21</v>
+      </c>
+      <c r="O35" s="6">
+        <v>-38.21</v>
+      </c>
+    </row>
+    <row r="36" spans="10:15">
+      <c r="J36" s="10">
+        <v>4</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M36" s="8">
+        <v>29.7</v>
+      </c>
+      <c r="N36" s="7">
+        <v>150.56</v>
+      </c>
+      <c r="O36" s="6">
+        <v>-20.66</v>
+      </c>
+    </row>
+    <row r="37" spans="10:15">
+      <c r="J37" s="10">
+        <v>11</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M37" s="8">
+        <v>5.45</v>
+      </c>
+      <c r="N37" s="7">
+        <v>23.07</v>
+      </c>
+      <c r="O37" s="6">
+        <v>-42.13</v>
+      </c>
+    </row>
+    <row r="38" spans="10:15">
+      <c r="J38" s="10">
+        <v>13</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M38" s="8">
+        <v>25.9</v>
+      </c>
+      <c r="N38" s="7">
+        <v>14.16</v>
+      </c>
+      <c r="O38" s="6">
+        <v>-42.5</v>
+      </c>
+    </row>
+    <row r="39" spans="10:15">
+      <c r="J39" s="10">
+        <v>14</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M39" s="8">
+        <v>18.13</v>
+      </c>
+      <c r="N39" s="7">
+        <v>12.19</v>
+      </c>
+      <c r="O39" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="10:15" ht="13.5" thickBot="1"/>
+    <row r="41" spans="10:15" ht="13.5" thickTop="1">
+      <c r="J41" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K41" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="10:15">
+      <c r="J42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="10:15" ht="13.5" thickBot="1"/>
+    <row r="44" spans="10:15" ht="13.5" thickTop="1">
+      <c r="J44" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K44" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L44" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M44" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N44" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="10:15">
+      <c r="J45" s="10">
+        <v>11</v>
+      </c>
+      <c r="K45" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="M45" s="8">
+        <v>5.45</v>
+      </c>
+      <c r="N45" s="7">
+        <v>23.07</v>
+      </c>
+      <c r="O45" s="6">
+        <v>-42.13</v>
+      </c>
+    </row>
+    <row r="47" spans="10:15" ht="13.5" thickBot="1"/>
+    <row r="48" spans="10:15" ht="13.5" thickTop="1">
+      <c r="J48" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="10:15">
+      <c r="J49" s="16" t="str">
+        <f>CONCATENATE("&gt;=",AVERAGE(D15:D31))</f>
+        <v>&gt;=13,7517647058824</v>
+      </c>
+    </row>
+    <row r="50" spans="10:15" ht="13.5" thickBot="1"/>
+    <row r="51" spans="10:15" ht="13.5" thickTop="1">
+      <c r="J51" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L51" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="10:15">
+      <c r="J52" s="10">
+        <v>4</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M52" s="8">
+        <v>29.7</v>
+      </c>
+      <c r="N52" s="7">
+        <v>150.56</v>
+      </c>
+      <c r="O52" s="6">
+        <v>-20.66</v>
+      </c>
+    </row>
+    <row r="53" spans="10:15">
+      <c r="J53" s="10">
+        <v>13</v>
+      </c>
+      <c r="K53" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L53" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M53" s="8">
+        <v>25.9</v>
+      </c>
+      <c r="N53" s="7">
+        <v>14.16</v>
+      </c>
+      <c r="O53" s="6">
+        <v>-42.5</v>
+      </c>
+    </row>
+    <row r="54" spans="10:15">
+      <c r="J54" s="10">
+        <v>14</v>
+      </c>
+      <c r="K54" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L54" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="8">
+        <v>18.13</v>
+      </c>
+      <c r="N54" s="7">
+        <v>12.19</v>
+      </c>
+      <c r="O54" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="10:15">
+      <c r="J55" s="10">
+        <v>15</v>
+      </c>
+      <c r="K55" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L55" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M55" s="8">
+        <v>39.25</v>
+      </c>
+      <c r="N55" s="7">
+        <v>-25.36</v>
+      </c>
+      <c r="O55" s="6">
+        <v>-12.35</v>
+      </c>
+    </row>
+    <row r="56" spans="10:15">
+      <c r="J56" s="10">
+        <v>16</v>
+      </c>
+      <c r="K56" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L56" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M56" s="8">
+        <v>20.47</v>
+      </c>
+      <c r="N56" s="7">
+        <v>-10.119999999999999</v>
+      </c>
+      <c r="O56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="10:15" ht="13.5" thickBot="1">
+      <c r="J57" s="5">
+        <v>17</v>
+      </c>
+      <c r="K57" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>23.62</v>
+      </c>
+      <c r="N57" s="2">
+        <v>-2.44</v>
+      </c>
+      <c r="O57" s="1">
+        <v>-9.36</v>
+      </c>
+    </row>
+    <row r="58" spans="10:15" ht="13.5" thickTop="1"/>
+    <row r="59" spans="10:15" ht="13.5" thickBot="1"/>
+    <row r="60" spans="10:15" ht="13.5" thickTop="1">
+      <c r="J60" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" spans="10:15">
+      <c r="J61" t="str">
+        <f>CONCATENATE("&gt;",LARGE(D15:D31,11))</f>
+        <v>&gt;7,69</v>
+      </c>
+    </row>
+    <row r="62" spans="10:15" ht="13.5" thickBot="1"/>
+    <row r="63" spans="10:15" ht="13.5" thickTop="1">
+      <c r="J63" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N63" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="O63" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64" spans="10:15">
+      <c r="J64" s="10">
+        <v>4</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L64" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M64" s="8">
+        <v>29.7</v>
+      </c>
+      <c r="N64" s="7">
+        <v>150.56</v>
+      </c>
+      <c r="O64" s="6">
+        <v>-20.66</v>
+      </c>
+    </row>
+    <row r="65" spans="10:15">
+      <c r="J65" s="10">
+        <v>5</v>
+      </c>
+      <c r="K65" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L65" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65" s="8">
+        <v>13.57</v>
+      </c>
+      <c r="N65" s="7">
+        <v>-0.86</v>
+      </c>
+      <c r="O65" s="6">
+        <v>-13.74</v>
+      </c>
+    </row>
+    <row r="66" spans="10:15">
+      <c r="J66" s="10">
+        <v>7</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M66" s="8">
+        <v>8.32</v>
+      </c>
+      <c r="N66" s="7">
+        <v>-36.65</v>
+      </c>
+      <c r="O66" s="6">
+        <v>-44.5</v>
+      </c>
+    </row>
+    <row r="67" spans="10:15">
+      <c r="J67" s="10">
+        <v>8</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L67" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" s="8">
+        <v>9.61</v>
+      </c>
+      <c r="N67" s="7">
+        <v>-72.239999999999995</v>
+      </c>
+      <c r="O67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="10:15">
+      <c r="J68" s="10">
+        <v>10</v>
+      </c>
+      <c r="K68" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L68" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M68" s="8">
+        <v>9.4</v>
+      </c>
+      <c r="N68" s="7">
+        <v>-60</v>
+      </c>
+      <c r="O68" s="6">
+        <v>-42.72</v>
+      </c>
+    </row>
+    <row r="69" spans="10:15">
+      <c r="J69" s="10">
+        <v>13</v>
+      </c>
+      <c r="K69" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M69" s="8">
+        <v>25.9</v>
+      </c>
+      <c r="N69" s="7">
+        <v>14.16</v>
+      </c>
+      <c r="O69" s="6">
+        <v>-42.5</v>
+      </c>
+    </row>
+    <row r="70" spans="10:15">
+      <c r="J70" s="10">
+        <v>14</v>
+      </c>
+      <c r="K70" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="M70" s="8">
+        <v>18.13</v>
+      </c>
+      <c r="N70" s="7">
+        <v>12.19</v>
+      </c>
+      <c r="O70" s="6">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="10:15">
+      <c r="J71" s="10">
+        <v>15</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="M71" s="8">
+        <v>39.25</v>
+      </c>
+      <c r="N71" s="7">
+        <v>-25.36</v>
+      </c>
+      <c r="O71" s="6">
+        <v>-12.35</v>
+      </c>
+    </row>
+    <row r="72" spans="10:15">
+      <c r="J72" s="10">
+        <v>16</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M72" s="8">
+        <v>20.47</v>
+      </c>
+      <c r="N72" s="7">
+        <v>-10.119999999999999</v>
+      </c>
+      <c r="O72" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="10:15" ht="13.5" thickBot="1">
+      <c r="J73" s="5">
+        <v>17</v>
+      </c>
+      <c r="K73" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L73" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>23.62</v>
+      </c>
+      <c r="N73" s="2">
+        <v>-2.44</v>
+      </c>
+      <c r="O73" s="1">
+        <v>-9.36</v>
+      </c>
+    </row>
+    <row r="74" spans="10:15" ht="13.5" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.75" top="0.23622047244094491" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
